--- a/useCase/UC_Estimation_Graph.xlsx
+++ b/useCase/UC_Estimation_Graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>UC</t>
   </si>
@@ -81,13 +81,10 @@
     <t>Select between MA &amp; CA</t>
   </si>
   <si>
-    <t>16h</t>
-  </si>
-  <si>
     <t>Close Cash Account</t>
   </si>
   <si>
-    <t>2h30m</t>
+    <t>21h</t>
   </si>
 </sst>
 </file>
@@ -253,37 +250,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -294,12 +260,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
+            <c:v>OLD</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -338,25 +299,123 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$2:$G$6</c:f>
+              <c:f>Tabelle1!$G$2:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>92.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NEW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>87.15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="1">
                   <c:v>25.2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="2">
                   <c:v>22.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -364,24 +423,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$2:$H$6</c:f>
+              <c:f>Tabelle1!$H$4:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,11 +449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411580760"/>
-        <c:axId val="411579976"/>
+        <c:axId val="252375040"/>
+        <c:axId val="252374648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411580760"/>
+        <c:axId val="252375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +493,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>FP</a:t>
                 </a:r>
               </a:p>
@@ -477,7 +530,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -513,12 +566,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411579976"/>
+        <c:crossAx val="252374648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411579976"/>
+        <c:axId val="252374648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -558,7 +611,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Total</a:t>
                 </a:r>
               </a:p>
@@ -631,7 +684,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411580760"/>
+        <c:crossAx val="252375040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1253,7 +1306,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1726,7 +1779,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1818,7 +1871,7 @@
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1827,13 +1880,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3">
         <v>87.15</v>
       </c>
       <c r="H4" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1847,13 +1900,13 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
         <v>25.2</v>
       </c>
       <c r="H5" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1867,13 +1920,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>22.05</v>
       </c>
       <c r="H6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/useCase/UC_Estimation_Graph.xlsx
+++ b/useCase/UC_Estimation_Graph.xlsx
@@ -66,15 +66,9 @@
     <t>2h</t>
   </si>
   <si>
-    <t>30m</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>4h30m</t>
-  </si>
-  <si>
     <t>Cash Opening Entry</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>21h</t>
+  </si>
+  <si>
+    <t>1h30m</t>
+  </si>
+  <si>
+    <t>2h30m</t>
   </si>
 </sst>
 </file>
@@ -339,7 +339,8 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
+            <c:forward val="10"/>
+            <c:backward val="22"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -368,7 +369,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,13 +429,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,11 +450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="252375040"/>
-        <c:axId val="252374648"/>
+        <c:axId val="214056624"/>
+        <c:axId val="214057016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="252375040"/>
+        <c:axId val="214056624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,12 +567,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252374648"/>
+        <c:crossAx val="214057016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="252374648"/>
+        <c:axId val="214057016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +685,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252375040"/>
+        <c:crossAx val="214056624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,6 +697,54 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1779,7 +1828,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1851,27 +1900,27 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3">
         <v>39.9</v>
       </c>
       <c r="H3" s="4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -1880,18 +1929,18 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3">
         <v>87.15</v>
       </c>
       <c r="H4" s="4">
-        <v>21</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1900,18 +1949,18 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G5" s="3">
         <v>25.2</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1920,13 +1969,13 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
         <v>22.05</v>
       </c>
       <c r="H6" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/useCase/UC_Estimation_Graph.xlsx
+++ b/useCase/UC_Estimation_Graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,72 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>UC</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Warm-Up time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>FP</t>
-  </si>
-  <si>
-    <t>Selling Process</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>9h</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>7h</t>
-  </si>
-  <si>
-    <t>23h</t>
-  </si>
-  <si>
-    <t>Cash Check</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Cash Opening Entry</t>
-  </si>
-  <si>
-    <t>Select between MA &amp; CA</t>
-  </si>
-  <si>
-    <t>Close Cash Account</t>
-  </si>
-  <si>
-    <t>21h</t>
-  </si>
-  <si>
-    <t>1h30m</t>
-  </si>
-  <si>
-    <t>2h30m</t>
   </si>
 </sst>
 </file>
@@ -94,7 +34,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#&quot;.&quot;##&quot;.&quot;###_ ###"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -105,16 +45,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -140,16 +70,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="PV Muster" xfId="1"/>
@@ -250,6 +174,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -263,7 +218,7 @@
             <c:v>OLD</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -295,128 +250,30 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
             <c:forward val="10"/>
-            <c:backward val="22"/>
+            <c:backward val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$2:$G$3</c:f>
+              <c:f>Tabelle1!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>92.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39.9</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tabelle1!$H$2:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>NEW</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tabelle1!$G$4:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:pt idx="2">
                   <c:v>87.15</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>25.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>22.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -424,17 +281,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$4:$H$6</c:f>
+              <c:f>Tabelle1!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -450,11 +313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214056624"/>
-        <c:axId val="214057016"/>
+        <c:axId val="266813096"/>
+        <c:axId val="266297208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214056624"/>
+        <c:axId val="266813096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +357,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>FP</a:t>
                 </a:r>
               </a:p>
@@ -531,7 +394,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -567,12 +430,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214057016"/>
+        <c:crossAx val="266297208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214057016"/>
+        <c:axId val="266297208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +475,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Total</a:t>
                 </a:r>
               </a:p>
@@ -685,7 +548,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214056624"/>
+        <c:crossAx val="266813096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -697,54 +560,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -755,10 +570,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1342,16 +1154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1825,157 +1637,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>87.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="2">
+        <v>25.2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1.5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>92.4</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <v>39.9</v>
-      </c>
-      <c r="H3" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3">
-        <v>87.15</v>
-      </c>
-      <c r="H4" s="4">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3">
-        <v>25.2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="B6" s="2">
         <v>22.05</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/useCase/UC_Estimation_Graph.xlsx
+++ b/useCase/UC_Estimation_Graph.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="15480" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -174,38 +174,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -250,17 +219,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="10"/>
-            <c:backward val="5"/>
+            <c:forward val="20"/>
+            <c:backward val="25"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$6</c:f>
+              <c:f>Tabelle1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>92.4</c:v>
                 </c:pt>
@@ -270,21 +239,15 @@
                 <c:pt idx="2">
                   <c:v>87.15</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.05</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>Tabelle1!$A$2:$A$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>23</c:v>
                 </c:pt>
@@ -294,10 +257,64 @@
                 <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="3">
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>NEW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$A$5:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="1">
                   <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -306,6 +323,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -313,11 +331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266813096"/>
-        <c:axId val="266297208"/>
+        <c:axId val="233444296"/>
+        <c:axId val="402255256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266813096"/>
+        <c:axId val="233444296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,12 +448,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266297208"/>
+        <c:crossAx val="402255256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266297208"/>
+        <c:axId val="402255256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +566,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266813096"/>
+        <c:crossAx val="233444296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,6 +578,42 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1640,7 +1694,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
